--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.174834396508846</v>
+        <v>-0.1827657310574017</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001861340543250625</v>
+        <v>-0.002089761025744459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06335535550263818</v>
+        <v>0.06271307180907398</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05066043238735669</v>
+        <v>-0.05482158802201637</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08813361580243637</v>
+        <v>-0.09338772253999979</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05385598776628631</v>
+        <v>0.05340704855105481</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1531459474618111</v>
+        <v>0.07753216016404796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003547412483214137</v>
+        <v>0.002381691176832363</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03753215782557592</v>
+        <v>0.0421758711685182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05859357548442975</v>
+        <v>0.02450268335028556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09041856037106159</v>
+        <v>0.03404215220482422</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02136507683263723</v>
+        <v>0.02636446441910545</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003241031152268259</v>
+        <v>0.0002614230902269199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003738533593932463</v>
+        <v>0.0005026795896990099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02988091620985247</v>
+        <v>0.03177697864956851</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03260997066927916</v>
+        <v>-0.02661013119572321</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0487801167196297</v>
+        <v>-0.03927687045209634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9230769230769231</v>
+        <v>1.380952380952381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02755174420675777</v>
+        <v>0.02927473397613152</v>
       </c>
     </row>
     <row r="6">

--- a/performance_report.xlsx
+++ b/performance_report.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008786671789293932</v>
+        <v>0.04706912312836109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002518786468930832</v>
+        <v>0.003311421560823845</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06914458673830827</v>
+        <v>0.06993978221477158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0169285458714674</v>
+        <v>0.02806918091662996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02872366093454223</v>
+        <v>0.04906736058311294</v>
       </c>
       <c r="G2" t="n">
         <v>0.8518518518518519</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04498591742462666</v>
+        <v>0.04910222958491753</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1827657310574017</v>
+        <v>-0.1618821614695648</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.002089761025744459</v>
+        <v>-0.001535924657817201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06271307180907398</v>
+        <v>0.0635801445549702</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05482158802201637</v>
+        <v>-0.04536312143630476</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09338772253999979</v>
+        <v>-0.07893755964360295</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05340704855105481</v>
+        <v>0.058268325059755</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07753216016404796</v>
+        <v>0.1204242742531469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002381691176832363</v>
+        <v>0.003136926772318269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0421758711685182</v>
+        <v>0.04164699690869342</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02450268335028556</v>
+        <v>0.04294805735145767</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03404215220482422</v>
+        <v>0.0628411442496702</v>
       </c>
       <c r="G4" t="n">
         <v>1.272727272727273</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02636446441910545</v>
+        <v>0.02449951597430828</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002614230902269199</v>
+        <v>0.02231729777395763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005026795896990099</v>
+        <v>0.0009980256252490854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03177697864956851</v>
+        <v>0.033650499373297</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02661013119572321</v>
+        <v>-0.0104082715514341</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03927687045209634</v>
+        <v>-0.01633728620011181</v>
       </c>
       <c r="G5" t="n">
-        <v>1.380952380952381</v>
+        <v>1.173913043478261</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02927473397613152</v>
+        <v>0.03054881248009589</v>
       </c>
     </row>
     <row r="6">
